--- a/Reprografias.xlsx
+++ b/Reprografias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projetos\CoimbraInk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\CoimbraInk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0118A890-599F-45F9-9B7A-01B1BE6776EF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19333ECF-143A-4C2F-9A7C-FE6A6E8A7654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="173">
   <si>
     <t>Latitude</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>Dá para mandar imprimir as coisas para o mail e depois é so ir levantar e estão 24h disponiveis com marcação 917238155 e o horário do fds é so ao sábado, e tem muitas restrições nas cenas da encadernação, tamanhos, quantidades e assim temos que ver isos</t>
+  </si>
+  <si>
+    <t>Solum</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -638,7 +641,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -936,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D278AB-7120-4BE3-B8B1-9FE1A4C04DD2}">
   <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,7 +1200,8 @@
         <v>75</v>
       </c>
       <c r="D2" s="3">
-        <v>-8.4212749000000002</v>
+        <f>D5</f>
+        <v>-8.4161765000000006</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -2905,11 +2909,15 @@
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="3">
-        <v>-8.4347437999999997</v>
+      <c r="D13" s="3" t="str">
+        <f>A13</f>
+        <v>Papelaria Papiro</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -3243,6 +3251,9 @@
       <c r="A17" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>86</v>
       </c>
@@ -3258,6 +3269,9 @@
       <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="B18" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
@@ -3437,6 +3451,9 @@
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="B19" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>88</v>
       </c>
@@ -3615,6 +3632,9 @@
     <row r="20" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>89</v>

--- a/Reprografias.xlsx
+++ b/Reprografias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\CoimbraInk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projetos\CoimbraInk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19333ECF-143A-4C2F-9A7C-FE6A6E8A7654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2617CB-B0A3-4DB2-A4CC-10B8A0243F07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="170">
   <si>
     <t>Latitude</t>
   </si>
@@ -249,12 +249,6 @@
     <t>geral@mundicopia.com</t>
   </si>
   <si>
-    <t>Pérola Branca</t>
-  </si>
-  <si>
-    <t>Não tiram fotocópias</t>
-  </si>
-  <si>
     <t>40.1970277</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
   </si>
   <si>
     <t>40.204148</t>
-  </si>
-  <si>
-    <t>40.2031886</t>
   </si>
   <si>
     <t>A5 Frente Cor</t>
@@ -624,7 +615,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,7 +632,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -939,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D278AB-7120-4BE3-B8B1-9FE1A4C04DD2}">
   <dimension ref="A1:BH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BH14" sqref="BH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,130 +1048,130 @@
         <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="BG1" s="2" t="s">
         <v>14</v>
@@ -1197,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3">
         <f>D5</f>
@@ -1261,115 +1252,115 @@
         <v>-1</v>
       </c>
       <c r="X2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
+        <v>-1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI2">
+        <v>-1</v>
+      </c>
+      <c r="AJ2">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN2">
+        <v>-1</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ2">
+        <v>-1</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT2">
+        <v>-1</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW2">
+        <v>-1</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
-      <c r="AC2">
-        <v>-1</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI2">
-        <v>-1</v>
-      </c>
-      <c r="AJ2">
-        <v>-1</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN2">
-        <v>-1</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ2">
-        <v>-1</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT2">
-        <v>-1</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW2">
-        <v>-1</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
@@ -1443,16 +1434,16 @@
         <v>-1</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AB3">
         <v>-1</v>
@@ -1464,16 +1455,16 @@
         <v>-1</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AG3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AH3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AI3">
         <v>-1</v>
@@ -1551,7 +1542,7 @@
         <v>-1</v>
       </c>
       <c r="BH3" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -1562,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3">
         <f>-8.4147088</f>
@@ -1626,10 +1617,10 @@
         <v>-1</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z4">
         <v>-1</v>
@@ -1641,100 +1632,100 @@
         <v>-1</v>
       </c>
       <c r="AC4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AD4" s="3">
         <v>-1</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AF4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG4">
+        <v>-1</v>
+      </c>
+      <c r="AH4">
+        <v>-1</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK4">
+        <v>-1</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH4" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="AG4">
-        <v>-1</v>
-      </c>
-      <c r="AH4">
-        <v>-1</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK4">
-        <v>-1</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -1745,7 +1736,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="3">
         <v>-8.4161765000000006</v>
@@ -1808,31 +1799,31 @@
         <v>-1</v>
       </c>
       <c r="X5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF5" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="AG5" s="3">
         <v>-1</v>
@@ -1925,7 +1916,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="3">
         <v>-8.4177529</v>
@@ -1988,115 +1979,115 @@
         <v>-1</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH6" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2107,7 +2098,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3">
         <v>-8.4145503999999995</v>
@@ -2148,11 +2139,137 @@
       <c r="P7" s="3">
         <v>-1</v>
       </c>
+      <c r="Q7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF7" s="3">
+        <v>-1</v>
+      </c>
       <c r="BG7" s="3">
         <v>-1</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2163,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3">
         <v>-8.4206450000000004</v>
@@ -2223,13 +2340,13 @@
         <v>-1</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z8">
         <v>-1</v>
@@ -2244,13 +2361,13 @@
         <v>-1</v>
       </c>
       <c r="AD8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AG8">
         <v>-1</v>
@@ -2265,7 +2382,7 @@
         <v>-1</v>
       </c>
       <c r="AK8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AL8" s="3">
         <v>-1</v>
@@ -2286,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AS8" s="3">
         <v>-1</v>
@@ -2307,7 +2424,7 @@
         <v>-1</v>
       </c>
       <c r="AY8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AZ8" s="3">
         <v>-1</v>
@@ -2328,13 +2445,13 @@
         <v>-1</v>
       </c>
       <c r="BF8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="BG8" s="3">
         <v>-1</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.25">
@@ -2350,18 +2467,178 @@
       <c r="D9" s="3">
         <v>-1</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>-1</v>
+      </c>
       <c r="BG9" s="3">
         <v>-1</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>45</v>
@@ -2430,31 +2707,31 @@
         <v>-1</v>
       </c>
       <c r="X10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
+        <v>-1</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="AF10" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG10" s="3">
         <v>-1</v>
@@ -2538,7 +2815,7 @@
         <v>-1</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2549,7 +2826,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3">
         <v>-8.4252736000000006</v>
@@ -2612,10 +2889,10 @@
         <v>-1</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z11" s="3">
         <v>-1</v>
@@ -2627,16 +2904,16 @@
         <v>-1</v>
       </c>
       <c r="AC11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AD11" s="3">
         <v>-1</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AG11">
         <v>-1</v>
@@ -2648,7 +2925,7 @@
         <v>-1</v>
       </c>
       <c r="AJ11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AK11">
         <v>-1</v>
@@ -2720,7 +2997,7 @@
         <v>-1</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2731,7 +3008,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="3">
         <v>-8.4226813000000007</v>
@@ -2794,10 +3071,10 @@
         <v>-1</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z12" s="3">
         <v>-1</v>
@@ -2815,10 +3092,10 @@
         <v>-1</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AG12" s="3">
         <v>-1</v>
@@ -2902,7 +3179,7 @@
         <v>-1</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2913,11 +3190,10 @@
         <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="3" t="str">
-        <f>A13</f>
-        <v>Papelaria Papiro</v>
+        <v>81</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-8.5270490999999993</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -2977,10 +3253,10 @@
         <v>-1</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Z13" s="3">
         <v>-1</v>
@@ -2992,7 +3268,7 @@
         <v>-1</v>
       </c>
       <c r="AC13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AD13" s="3">
         <v>-1</v>
@@ -3085,13 +3361,22 @@
         <v>-1</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-1</v>
+      </c>
       <c r="E14" s="3">
         <v>-1</v>
       </c>
@@ -3128,11 +3413,137 @@
       <c r="P14" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="Q14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF14" s="3">
+        <v>-1</v>
+      </c>
       <c r="BG14" s="3">
         <v>-1</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.25">
@@ -3184,6 +3595,132 @@
       <c r="P15" s="3">
         <v>-1</v>
       </c>
+      <c r="Q15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>-1</v>
+      </c>
       <c r="BG15" s="3">
         <v>-1</v>
       </c>
@@ -3199,7 +3736,7 @@
         <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
         <v>-8.4105965000000005</v>
@@ -3238,6 +3775,132 @@
         <v>-1</v>
       </c>
       <c r="P16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF16" s="3">
         <v>-1</v>
       </c>
       <c r="BG16" s="3">
@@ -3252,15 +3915,179 @@
         <v>64</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="3">
         <v>-8.4093219999999995</v>
       </c>
-      <c r="BG17" s="3"/>
+      <c r="E17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>-1</v>
+      </c>
       <c r="BH17" s="3" t="s">
         <v>63</v>
       </c>
@@ -3270,10 +4097,10 @@
         <v>67</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
         <v>-8.4071280000000002</v>
@@ -3336,10 +4163,10 @@
         <v>-1</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z18" s="3">
         <v>-1</v>
@@ -3357,10 +4184,10 @@
         <v>-1</v>
       </c>
       <c r="AE18" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG18" s="3">
         <v>-1</v>
@@ -3444,7 +4271,7 @@
         <v>-1</v>
       </c>
       <c r="BH18" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -3452,10 +4279,10 @@
         <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3">
         <v>-8.4048627000000007</v>
@@ -3518,172 +4345,120 @@
         <v>-1</v>
       </c>
       <c r="X19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG19">
+        <v>-1</v>
+      </c>
+      <c r="AH19">
+        <v>-1</v>
+      </c>
+      <c r="AI19">
+        <v>-1</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN19">
+        <v>-1</v>
+      </c>
+      <c r="AO19">
+        <v>-1</v>
+      </c>
+      <c r="AP19">
+        <v>-1</v>
+      </c>
+      <c r="AQ19">
+        <v>-1</v>
+      </c>
+      <c r="AR19">
+        <v>-1</v>
+      </c>
+      <c r="AS19">
+        <v>-1</v>
+      </c>
+      <c r="AT19">
+        <v>-1</v>
+      </c>
+      <c r="AU19">
+        <v>-1</v>
+      </c>
+      <c r="AV19">
+        <v>-1</v>
+      </c>
+      <c r="AW19">
+        <v>-1</v>
+      </c>
+      <c r="AX19">
+        <v>-1</v>
+      </c>
+      <c r="AY19">
+        <v>-1</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB19">
+        <v>-1</v>
+      </c>
+      <c r="BC19">
+        <v>-1</v>
+      </c>
+      <c r="BD19">
+        <v>-1</v>
+      </c>
+      <c r="BE19">
+        <v>-1</v>
+      </c>
+      <c r="BF19">
+        <v>-1</v>
+      </c>
+      <c r="BG19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="AE19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG19">
-        <v>-1</v>
-      </c>
-      <c r="AH19">
-        <v>-1</v>
-      </c>
-      <c r="AI19">
-        <v>-1</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN19">
-        <v>-1</v>
-      </c>
-      <c r="AO19">
-        <v>-1</v>
-      </c>
-      <c r="AP19">
-        <v>-1</v>
-      </c>
-      <c r="AQ19">
-        <v>-1</v>
-      </c>
-      <c r="AR19">
-        <v>-1</v>
-      </c>
-      <c r="AS19">
-        <v>-1</v>
-      </c>
-      <c r="AT19">
-        <v>-1</v>
-      </c>
-      <c r="AU19">
-        <v>-1</v>
-      </c>
-      <c r="AV19">
-        <v>-1</v>
-      </c>
-      <c r="AW19">
-        <v>-1</v>
-      </c>
-      <c r="AX19">
-        <v>-1</v>
-      </c>
-      <c r="AY19">
-        <v>-1</v>
-      </c>
-      <c r="AZ19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB19">
-        <v>-1</v>
-      </c>
-      <c r="BC19">
-        <v>-1</v>
-      </c>
-      <c r="BD19">
-        <v>-1</v>
-      </c>
-      <c r="BE19">
-        <v>-1</v>
-      </c>
-      <c r="BF19">
-        <v>-1</v>
-      </c>
-      <c r="BG19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH19" s="3" t="s">
-        <v>171</v>
-      </c>
     </row>
-    <row r="20" spans="1:60" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-8.4128181000000009</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH20" s="3" t="s">
-        <v>73</v>
-      </c>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Reprografias.xlsx
+++ b/Reprografias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projetos\CoimbraInk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\CoimbraInk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2617CB-B0A3-4DB2-A4CC-10B8A0243F07}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F493B-F1A8-478E-95CB-6382E6224383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="173">
   <si>
     <t>Latitude</t>
   </si>
@@ -93,9 +93,6 @@
     <t>centrodecopias.ar@gmail.com</t>
   </si>
   <si>
-    <t>40.1136</t>
-  </si>
-  <si>
     <t>www.copyknomica.com</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>17.30</t>
   </si>
   <si>
-    <t>Reprografia do DEEC e DEM</t>
-  </si>
-  <si>
     <t>cc.deec@gmail.com</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>Faculdade de Letras</t>
   </si>
   <si>
-    <t>Faculdade de Matematica</t>
-  </si>
-  <si>
     <t>ccopiasdmat@gmail.com</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
     <t>bookpaper@bookpaper.pt</t>
   </si>
   <si>
-    <t>40.21444</t>
-  </si>
-  <si>
     <t>Fotocopiadora Sé Velha</t>
   </si>
   <si>
@@ -249,51 +237,12 @@
     <t>geral@mundicopia.com</t>
   </si>
   <si>
-    <t>40.1970277</t>
-  </si>
-  <si>
-    <t>40.1970273</t>
-  </si>
-  <si>
-    <t>40.185774</t>
-  </si>
-  <si>
-    <t>40.1864471</t>
-  </si>
-  <si>
-    <t>40.1847511</t>
-  </si>
-  <si>
-    <t>40.2067443</t>
-  </si>
-  <si>
     <t>Estava fechada e não encontro as coordenadas desta porra</t>
   </si>
   <si>
-    <t>40.2082024</t>
-  </si>
-  <si>
-    <t>40.207836</t>
-  </si>
-  <si>
-    <t>40.2112385</t>
-  </si>
-  <si>
     <t>Não dizia o horário dos sabados, e tava fechada também e também nao encontrei nada sobre ela</t>
   </si>
   <si>
-    <t>40.2149631</t>
-  </si>
-  <si>
-    <t>40.2047067</t>
-  </si>
-  <si>
-    <t>40.2037541</t>
-  </si>
-  <si>
-    <t>40.204148</t>
-  </si>
-  <si>
     <t>A5 Frente Cor</t>
   </si>
   <si>
@@ -541,6 +490,66 @@
   </si>
   <si>
     <t>Solum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reprografia do DEEC </t>
+  </si>
+  <si>
+    <t>Reprografia do DEM</t>
+  </si>
+  <si>
+    <t>40.195591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.193560 </t>
+  </si>
+  <si>
+    <t>40.197257</t>
+  </si>
+  <si>
+    <t>40.185727</t>
+  </si>
+  <si>
+    <t>40.186701</t>
+  </si>
+  <si>
+    <t>40.185092</t>
+  </si>
+  <si>
+    <t>40.186413</t>
+  </si>
+  <si>
+    <t>40.206945</t>
+  </si>
+  <si>
+    <t>40.207907</t>
+  </si>
+  <si>
+    <t>40.208107</t>
+  </si>
+  <si>
+    <t>Departamento de Matematica</t>
+  </si>
+  <si>
+    <t>40.207834</t>
+  </si>
+  <si>
+    <t>40.208080</t>
+  </si>
+  <si>
+    <t>40.211032</t>
+  </si>
+  <si>
+    <t>40.214974</t>
+  </si>
+  <si>
+    <t>40.204712</t>
+  </si>
+  <si>
+    <t>40.203758</t>
+  </si>
+  <si>
+    <t>40.204160</t>
   </si>
 </sst>
 </file>
@@ -615,7 +624,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -632,7 +641,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -928,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D278AB-7120-4BE3-B8B1-9FE1A4C04DD2}">
-  <dimension ref="A1:BH20"/>
+  <dimension ref="A1:BH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH14" sqref="BH14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -1048,136 +1057,136 @@
         <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AV1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="BC1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="BD1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="BG1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -1188,11 +1197,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="D2" s="3">
-        <f>D5</f>
-        <v>-8.4161765000000006</v>
+        <v>-8.4154060000000008</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>18</v>
@@ -1252,16 +1260,16 @@
         <v>-1</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="Z2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="AB2">
         <v>-1</v>
@@ -1270,19 +1278,19 @@
         <v>-1</v>
       </c>
       <c r="AD2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="AG2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="AH2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="AI2">
         <v>-1</v>
@@ -1291,7 +1299,7 @@
         <v>-1</v>
       </c>
       <c r="AK2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="AL2" s="3">
         <v>-1</v>
@@ -1360,36 +1368,36 @@
         <v>-1</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-8.4101189999999999</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-8.2436000000000007</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="3">
         <v>239406337</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3">
         <v>-1</v>
@@ -1401,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="3">
         <v>-1</v>
@@ -1410,7 +1418,7 @@
         <v>-1</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3">
         <v>-1</v>
@@ -1434,16 +1442,16 @@
         <v>-1</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="Z3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="AB3">
         <v>-1</v>
@@ -1455,16 +1463,16 @@
         <v>-1</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AF3" s="5" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="AG3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AH3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="AI3">
         <v>-1</v>
@@ -1542,22 +1550,21 @@
         <v>-1</v>
       </c>
       <c r="BH3" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="D4" s="3">
-        <f>-8.4147088</f>
-        <v>-8.4147087999999997</v>
+        <v>-8.4124990000000004</v>
       </c>
       <c r="E4" s="3">
         <v>-1</v>
@@ -1617,10 +1624,10 @@
         <v>-1</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="Z4">
         <v>-1</v>
@@ -1632,16 +1639,16 @@
         <v>-1</v>
       </c>
       <c r="AC4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="AD4" s="3">
         <v>-1</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="AG4">
         <v>-1</v>
@@ -1653,7 +1660,7 @@
         <v>-1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="AK4">
         <v>-1</v>
@@ -1725,30 +1732,30 @@
         <v>-1</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-8.4152539999999991</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-8.4161765000000006</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="3">
         <v>239797286</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -1757,13 +1764,13 @@
         <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="3">
         <v>14</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M5" s="3">
         <v>-1</v>
@@ -1799,10 +1806,10 @@
         <v>-1</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="Z5" s="3">
         <v>-1</v>
@@ -1820,10 +1827,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="AG5" s="3">
         <v>-1</v>
@@ -1910,16 +1917,16 @@
     </row>
     <row r="6" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="D6" s="3">
-        <v>-8.4177529</v>
+        <v>-8.4166969999999992</v>
       </c>
       <c r="E6" s="3">
         <v>-1</v>
@@ -1928,7 +1935,7 @@
         <v>-1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1937,13 +1944,13 @@
         <v>9</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="3">
         <v>-1</v>
@@ -1979,129 +1986,129 @@
         <v>-1</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH6" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="D7" s="3">
-        <v>-8.4145503999999995</v>
+        <v>-8.4125960000000006</v>
       </c>
       <c r="E7" s="3">
         <v>-1</v>
@@ -2109,8 +2116,8 @@
       <c r="F7" s="3">
         <v>-1</v>
       </c>
-      <c r="G7" s="3">
-        <v>-1</v>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -2119,13 +2126,13 @@
         <v>9</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="3">
-        <v>14</v>
+        <v>31</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="3">
         <v>-1</v>
@@ -2160,11 +2167,11 @@
       <c r="W7" s="3">
         <v>-1</v>
       </c>
-      <c r="X7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>-1</v>
+      <c r="X7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="Z7" s="3">
         <v>-1</v>
@@ -2181,11 +2188,11 @@
       <c r="AD7" s="3">
         <v>-1</v>
       </c>
-      <c r="AE7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>-1</v>
+      <c r="AE7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="AG7" s="3">
         <v>-1</v>
@@ -2269,409 +2276,409 @@
         <v>-1</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="D8" s="3">
-        <v>-8.4206450000000004</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>-8.4180130000000002</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-1</v>
       </c>
       <c r="F8" s="3">
-        <v>239836184</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
+        <v>-1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-1</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="3">
-        <v>-1</v>
+      <c r="I8" s="3">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K8" s="3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-8.4206710000000005</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3">
+        <v>239836184</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
+        <v>-1</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG9">
+        <v>-1</v>
+      </c>
+      <c r="AH9">
+        <v>-1</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="3">
-        <v>10</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z8">
-        <v>-1</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC8">
-        <v>-1</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG8">
-        <v>-1</v>
-      </c>
-      <c r="AH8">
-        <v>-1</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>2</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH8" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="X9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH9" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" s="3">
         <v>-1</v>
       </c>
       <c r="D10" s="3">
         <v>-1</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
+      <c r="E10" s="4">
+        <v>-1</v>
       </c>
       <c r="F10" s="3">
-        <v>239484254</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>47</v>
+        <v>-1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>-1</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>23</v>
+        <v>-1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-1</v>
       </c>
       <c r="J10" s="3">
-        <v>13</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>25</v>
+        <v>-1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>-1</v>
       </c>
       <c r="M10" s="3">
         <v>-1</v>
@@ -2706,32 +2713,32 @@
       <c r="W10" s="3">
         <v>-1</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>147</v>
+      <c r="X10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>-1</v>
       </c>
       <c r="Z10" s="3">
         <v>-1</v>
       </c>
-      <c r="AA10" t="s">
-        <v>135</v>
+      <c r="AA10" s="3">
+        <v>-1</v>
       </c>
       <c r="AB10" s="3">
         <v>-1</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="3">
         <v>-1</v>
       </c>
       <c r="AD10" s="3">
         <v>-1</v>
       </c>
-      <c r="AE10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>148</v>
+      <c r="AE10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>-1</v>
       </c>
       <c r="AG10" s="3">
         <v>-1</v>
@@ -2815,45 +2822,45 @@
         <v>-1</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-8.4235389999999999</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3">
+        <v>239484254</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-8.4252736000000006</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-1</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <v>-1</v>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-1</v>
+        <v>13</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M11" s="3">
         <v>-1</v>
@@ -2889,45 +2896,45 @@
         <v>-1</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="Z11" s="3">
         <v>-1</v>
       </c>
-      <c r="AA11" s="3">
-        <v>-1</v>
+      <c r="AA11" t="s">
+        <v>118</v>
       </c>
       <c r="AB11" s="3">
         <v>-1</v>
       </c>
-      <c r="AC11" t="s">
-        <v>135</v>
+      <c r="AC11">
+        <v>-1</v>
       </c>
       <c r="AD11" s="3">
         <v>-1</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG11">
-        <v>-1</v>
-      </c>
-      <c r="AH11">
+        <v>131</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH11" s="3">
         <v>-1</v>
       </c>
       <c r="AI11" s="3">
         <v>-1</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK11">
+      <c r="AJ11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK11" s="3">
         <v>-1</v>
       </c>
       <c r="AL11" s="3">
@@ -2997,21 +3004,21 @@
         <v>-1</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="D12" s="3">
-        <v>-8.4226813000000007</v>
+        <v>-8.4252289999999999</v>
       </c>
       <c r="E12" s="3">
         <v>-1</v>
@@ -3019,8 +3026,8 @@
       <c r="F12" s="3">
         <v>-1</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>51</v>
+      <c r="G12" s="3">
+        <v>-1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -3071,10 +3078,10 @@
         <v>-1</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="Z12" s="3">
         <v>-1</v>
@@ -3085,31 +3092,31 @@
       <c r="AB12" s="3">
         <v>-1</v>
       </c>
-      <c r="AC12" s="3">
-        <v>-1</v>
+      <c r="AC12" t="s">
+        <v>118</v>
       </c>
       <c r="AD12" s="3">
         <v>-1</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH12" s="3">
+        <v>132</v>
+      </c>
+      <c r="AG12">
+        <v>-1</v>
+      </c>
+      <c r="AH12">
         <v>-1</v>
       </c>
       <c r="AI12" s="3">
         <v>-1</v>
       </c>
-      <c r="AJ12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK12" s="3">
+      <c r="AJ12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK12">
         <v>-1</v>
       </c>
       <c r="AL12" s="3">
@@ -3179,30 +3186,30 @@
         <v>-1</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="D13" s="3">
-        <v>-8.5270490999999993</v>
+        <v>-8.4229430000000001</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
       </c>
       <c r="F13" s="3">
-        <v>239048784</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -3253,10 +3260,10 @@
         <v>-1</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="Z13" s="3">
         <v>-1</v>
@@ -3267,17 +3274,17 @@
       <c r="AB13" s="3">
         <v>-1</v>
       </c>
-      <c r="AC13" t="s">
-        <v>160</v>
+      <c r="AC13" s="3">
+        <v>-1</v>
       </c>
       <c r="AD13" s="3">
         <v>-1</v>
       </c>
-      <c r="AE13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>-1</v>
+      <c r="AE13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="AG13" s="3">
         <v>-1</v>
@@ -3361,57 +3368,57 @@
         <v>-1</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-1</v>
+        <v>49</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D14" s="3">
-        <v>-1</v>
+        <v>-8.420909</v>
       </c>
       <c r="E14" s="3">
         <v>-1</v>
       </c>
       <c r="F14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-1</v>
+        <v>239048784</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J14" s="3">
-        <v>13</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>55</v>
+        <v>-1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-1</v>
       </c>
       <c r="M14" s="3">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="3">
-        <v>13</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>55</v>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-1</v>
       </c>
       <c r="Q14" s="3">
         <v>-1</v>
@@ -3434,11 +3441,11 @@
       <c r="W14" s="3">
         <v>-1</v>
       </c>
-      <c r="X14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>-1</v>
+      <c r="X14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="Z14" s="3">
         <v>-1</v>
@@ -3449,8 +3456,8 @@
       <c r="AB14" s="3">
         <v>-1</v>
       </c>
-      <c r="AC14" s="3">
-        <v>-1</v>
+      <c r="AC14" t="s">
+        <v>143</v>
       </c>
       <c r="AD14" s="3">
         <v>-1</v>
@@ -3543,57 +3550,57 @@
         <v>-1</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-8.4037900000000008</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1</v>
       </c>
       <c r="F15" s="3">
-        <v>239704445</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>60</v>
+        <v>-1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-1</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>23</v>
+      <c r="I15" s="3">
+        <v>10</v>
       </c>
       <c r="J15" s="3">
         <v>13</v>
       </c>
-      <c r="K15" s="3">
-        <v>14</v>
-      </c>
-      <c r="L15" s="3">
-        <v>18</v>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="M15" s="3">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-1</v>
+        <v>13</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="Q15" s="3">
         <v>-1</v>
@@ -3725,45 +3732,45 @@
         <v>-1</v>
       </c>
       <c r="BH15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="6">
+        <v>-8.4029330000000009</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:60" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-8.4105965000000005</v>
-      </c>
-      <c r="E16" s="3">
-        <v>-1</v>
-      </c>
       <c r="F16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>-1</v>
+        <v>239704445</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="J16" s="3">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="K16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="L16" s="3">
+        <v>18</v>
       </c>
       <c r="M16" s="3">
         <v>-1</v>
@@ -3907,21 +3914,21 @@
         <v>-1</v>
       </c>
       <c r="BH16" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D17" s="3">
-        <v>-8.4093219999999995</v>
+        <v>-8.4084070000000004</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -3933,10 +3940,10 @@
         <v>-1</v>
       </c>
       <c r="H17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J17" s="3">
         <v>-1</v>
@@ -3944,8 +3951,8 @@
       <c r="K17" s="3">
         <v>-1</v>
       </c>
-      <c r="L17" s="3">
-        <v>-1</v>
+      <c r="L17" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="M17" s="3">
         <v>-1</v>
@@ -4089,21 +4096,21 @@
         <v>-1</v>
       </c>
       <c r="BH17" s="3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="D18" s="3">
-        <v>-8.4071280000000002</v>
+        <v>-8.4076140000000006</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -4115,31 +4122,31 @@
         <v>-1</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="3">
-        <v>10</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>36</v>
+        <v>-1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1</v>
       </c>
       <c r="K18" s="3">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="3">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="M18" s="3">
-        <v>10</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>69</v>
+        <v>-1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1</v>
       </c>
       <c r="O18" s="3">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="3">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="3">
         <v>-1</v>
@@ -4162,11 +4169,11 @@
       <c r="W18" s="3">
         <v>-1</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>135</v>
+      <c r="X18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-1</v>
       </c>
       <c r="Z18" s="3">
         <v>-1</v>
@@ -4183,11 +4190,11 @@
       <c r="AD18" s="3">
         <v>-1</v>
       </c>
-      <c r="AE18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF18" s="3" t="s">
-        <v>163</v>
+      <c r="AE18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>-1</v>
       </c>
       <c r="AG18" s="3">
         <v>-1</v>
@@ -4271,194 +4278,376 @@
         <v>-1</v>
       </c>
       <c r="BH18" s="3" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="D19" s="3">
-        <v>-8.4048627000000007</v>
+        <v>-8.4049420000000001</v>
       </c>
       <c r="E19" s="3">
         <v>-1</v>
       </c>
       <c r="F19" s="3">
-        <v>917238155</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>71</v>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-1</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>9</v>
-      </c>
-      <c r="J19" s="3">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="K19" s="3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="L19" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M19" s="3">
         <v>10</v>
       </c>
-      <c r="N19" s="3">
-        <v>13</v>
+      <c r="N19" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="O19" s="3">
         <v>14</v>
       </c>
       <c r="P19" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH19" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-8.4026700000000005</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>917238155</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>19</v>
+      </c>
+      <c r="M20" s="3">
+        <v>10</v>
+      </c>
+      <c r="N20" s="3">
+        <v>13</v>
+      </c>
+      <c r="O20" s="3">
+        <v>14</v>
+      </c>
+      <c r="P20" s="3">
         <v>18</v>
       </c>
-      <c r="Q19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y19" s="3" t="s">
+      <c r="Q20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD20" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Z19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG19">
-        <v>-1</v>
-      </c>
-      <c r="AH19">
-        <v>-1</v>
-      </c>
-      <c r="AI19">
-        <v>-1</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>167</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN19">
-        <v>-1</v>
-      </c>
-      <c r="AO19">
-        <v>-1</v>
-      </c>
-      <c r="AP19">
-        <v>-1</v>
-      </c>
-      <c r="AQ19">
-        <v>-1</v>
-      </c>
-      <c r="AR19">
-        <v>-1</v>
-      </c>
-      <c r="AS19">
-        <v>-1</v>
-      </c>
-      <c r="AT19">
-        <v>-1</v>
-      </c>
-      <c r="AU19">
-        <v>-1</v>
-      </c>
-      <c r="AV19">
-        <v>-1</v>
-      </c>
-      <c r="AW19">
-        <v>-1</v>
-      </c>
-      <c r="AX19">
-        <v>-1</v>
-      </c>
-      <c r="AY19">
-        <v>-1</v>
-      </c>
-      <c r="AZ19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB19">
-        <v>-1</v>
-      </c>
-      <c r="BC19">
-        <v>-1</v>
-      </c>
-      <c r="BD19">
-        <v>-1</v>
-      </c>
-      <c r="BE19">
-        <v>-1</v>
-      </c>
-      <c r="BF19">
-        <v>-1</v>
-      </c>
-      <c r="BG19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH19" s="3" t="s">
-        <v>168</v>
+      <c r="AE20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG20">
+        <v>-1</v>
+      </c>
+      <c r="AH20">
+        <v>-1</v>
+      </c>
+      <c r="AI20">
+        <v>-1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN20">
+        <v>-1</v>
+      </c>
+      <c r="AO20">
+        <v>-1</v>
+      </c>
+      <c r="AP20">
+        <v>-1</v>
+      </c>
+      <c r="AQ20">
+        <v>-1</v>
+      </c>
+      <c r="AR20">
+        <v>-1</v>
+      </c>
+      <c r="AS20">
+        <v>-1</v>
+      </c>
+      <c r="AT20">
+        <v>-1</v>
+      </c>
+      <c r="AU20">
+        <v>-1</v>
+      </c>
+      <c r="AV20">
+        <v>-1</v>
+      </c>
+      <c r="AW20">
+        <v>-1</v>
+      </c>
+      <c r="AX20">
+        <v>-1</v>
+      </c>
+      <c r="AY20">
+        <v>-1</v>
+      </c>
+      <c r="AZ20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB20">
+        <v>-1</v>
+      </c>
+      <c r="BC20">
+        <v>-1</v>
+      </c>
+      <c r="BD20">
+        <v>-1</v>
+      </c>
+      <c r="BE20">
+        <v>-1</v>
+      </c>
+      <c r="BF20">
+        <v>-1</v>
+      </c>
+      <c r="BG20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH20" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4467,12 +4656,13 @@
     <hyperlink ref="G3" r:id="rId3" xr:uid="{D630027C-42BF-4E0D-A115-0BDB73A9C473}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{61DD6C4B-9C85-40E5-8286-06659DC57210}"/>
     <hyperlink ref="G6" r:id="rId5" xr:uid="{7AEEE135-0C06-4F0C-8E55-A6EC8D2209C2}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{2FD7D590-9C0C-4A36-97D7-B19E1784A13A}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{B140FBED-D4F8-430F-BCA2-E9B46ADB42B9}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{65FA1AC9-BEFC-4D92-B61A-51CFE5578CAF}"/>
-    <hyperlink ref="G10" r:id="rId9" xr:uid="{454D9B3B-A1C0-4F46-BA0A-6B8916437E8B}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{2FD7D590-9C0C-4A36-97D7-B19E1784A13A}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{B140FBED-D4F8-430F-BCA2-E9B46ADB42B9}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{65FA1AC9-BEFC-4D92-B61A-51CFE5578CAF}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{454D9B3B-A1C0-4F46-BA0A-6B8916437E8B}"/>
+    <hyperlink ref="G7" r:id="rId10" xr:uid="{6D51CB25-8392-4DFB-8A62-9699BFEE2C0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Reprografias.xlsx
+++ b/Reprografias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\CoimbraInk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projetos\CoimbraInk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F493B-F1A8-478E-95CB-6382E6224383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825F893D-6F6E-40B1-9FA5-A39AE93EE1AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="221">
   <si>
     <t>Latitude</t>
   </si>
@@ -550,6 +550,150 @@
   </si>
   <si>
     <t>40.204160</t>
+  </si>
+  <si>
+    <t>Teste Hugo</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>40.21231</t>
+  </si>
+  <si>
+    <t>www.alberto.com</t>
+  </si>
+  <si>
+    <t>hugo@alberto.com</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.321</t>
+  </si>
+  <si>
+    <t>0.890</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.3213</t>
+  </si>
+  <si>
+    <t>0.21312</t>
+  </si>
+  <si>
+    <t>0.3232</t>
+  </si>
+  <si>
+    <t>0.32132131</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.9555</t>
+  </si>
+  <si>
+    <t>0.83232</t>
+  </si>
+  <si>
+    <t>0.9123</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.3254</t>
+  </si>
+  <si>
+    <t>0.4354</t>
+  </si>
+  <si>
+    <t>0.465</t>
+  </si>
+  <si>
+    <t>0.5463</t>
+  </si>
+  <si>
+    <t>0.5465</t>
+  </si>
+  <si>
+    <t>0.564645</t>
+  </si>
+  <si>
+    <t>0.431321</t>
+  </si>
+  <si>
+    <t>0.213112</t>
+  </si>
+  <si>
+    <t>0.321312</t>
+  </si>
+  <si>
+    <t>0.32131</t>
+  </si>
+  <si>
+    <t>0.5334</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.321321</t>
+  </si>
+  <si>
+    <t>0.3211</t>
   </si>
 </sst>
 </file>
@@ -624,7 +768,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,7 +785,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -939,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D278AB-7120-4BE3-B8B1-9FE1A4C04DD2}">
   <dimension ref="A1:BH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC29" sqref="BC29:BC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4646,7 +4790,183 @@
       </c>
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="BG21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-8.4212321321899992</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F21" s="3">
+        <v>935877377</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU21" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV21" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW21" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY21" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ21" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BA21" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB21" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BC21" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE21" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BG21" s="3">
+        <v>5</v>
+      </c>
       <c r="BH21" s="3"/>
     </row>
   </sheetData>
@@ -4661,8 +4981,10 @@
     <hyperlink ref="E11" r:id="rId8" xr:uid="{65FA1AC9-BEFC-4D92-B61A-51CFE5578CAF}"/>
     <hyperlink ref="G11" r:id="rId9" xr:uid="{454D9B3B-A1C0-4F46-BA0A-6B8916437E8B}"/>
     <hyperlink ref="G7" r:id="rId10" xr:uid="{6D51CB25-8392-4DFB-8A62-9699BFEE2C0C}"/>
+    <hyperlink ref="E21" r:id="rId11" xr:uid="{18B6A34D-57EC-4A9D-B757-EFAA4EC0D173}"/>
+    <hyperlink ref="G21" r:id="rId12" xr:uid="{6D2908D8-6A06-4205-B978-5FE58AE12476}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Reprografias.xlsx
+++ b/Reprografias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projetos\CoimbraInk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825F893D-6F6E-40B1-9FA5-A39AE93EE1AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08610EE0-83C6-4B32-B918-4889EBB8BA1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="216">
   <si>
     <t>Latitude</t>
   </si>
@@ -159,9 +159,6 @@
     <t>19.00</t>
   </si>
   <si>
-    <t>Cecopi</t>
-  </si>
-  <si>
     <t>Polo 1</t>
   </si>
   <si>
@@ -186,12 +183,6 @@
     <t>coimbra@papelariaspapiro.pt</t>
   </si>
   <si>
-    <t>Casa das Bonecas</t>
-  </si>
-  <si>
-    <t>16.30</t>
-  </si>
-  <si>
     <t>Apenas permitem horário + localização</t>
   </si>
   <si>
@@ -235,12 +226,6 @@
   </si>
   <si>
     <t>geral@mundicopia.com</t>
-  </si>
-  <si>
-    <t>Estava fechada e não encontro as coordenadas desta porra</t>
-  </si>
-  <si>
-    <t>Não dizia o horário dos sabados, e tava fechada também e também nao encontrei nada sobre ela</t>
   </si>
   <si>
     <t>A5 Frente Cor</t>
@@ -1081,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D278AB-7120-4BE3-B8B1-9FE1A4C04DD2}">
-  <dimension ref="A1:BH21"/>
+  <dimension ref="A1:BH19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC29" sqref="BC29:BC30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>10</v>
@@ -1201,130 +1186,130 @@
         <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AK1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AR1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BE1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BF1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="BG1" s="2" t="s">
         <v>14</v>
@@ -1341,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" s="3">
         <v>-8.4154060000000008</v>
@@ -1404,16 +1389,16 @@
         <v>-1</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Z2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AB2">
         <v>-1</v>
@@ -1422,29 +1407,29 @@
         <v>-1</v>
       </c>
       <c r="AD2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AE2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2">
+        <v>-1</v>
+      </c>
+      <c r="AJ2">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI2">
-        <v>-1</v>
-      </c>
-      <c r="AJ2">
-        <v>-1</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>120</v>
-      </c>
       <c r="AL2" s="3">
         <v>-1</v>
       </c>
@@ -1512,7 +1497,7 @@
         <v>-1</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
@@ -1523,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3" s="3">
         <v>-8.4101189999999999</v>
@@ -1586,37 +1571,37 @@
         <v>-1</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Y3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
+        <v>-1</v>
+      </c>
+      <c r="AD3">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3">
-        <v>-1</v>
-      </c>
-      <c r="AC3">
-        <v>-1</v>
-      </c>
-      <c r="AD3">
-        <v>-1</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="AF3" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AG3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AH3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AI3">
         <v>-1</v>
@@ -1694,7 +1679,7 @@
         <v>-1</v>
       </c>
       <c r="BH3" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -1705,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D4" s="3">
         <v>-8.4124990000000004</v>
@@ -1768,10 +1753,10 @@
         <v>-1</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Z4">
         <v>-1</v>
@@ -1783,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="AC4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AD4" s="3">
         <v>-1</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AG4">
         <v>-1</v>
@@ -1804,7 +1789,7 @@
         <v>-1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AK4">
         <v>-1</v>
@@ -1876,7 +1861,7 @@
         <v>-1</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -1887,7 +1872,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3">
         <v>-8.4152539999999991</v>
@@ -1950,10 +1935,10 @@
         <v>-1</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Z5" s="3">
         <v>-1</v>
@@ -1971,10 +1956,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AG5" s="3">
         <v>-1</v>
@@ -2061,13 +2046,13 @@
     </row>
     <row r="6" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D6" s="3">
         <v>-8.4166969999999992</v>
@@ -2130,10 +2115,10 @@
         <v>-1</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Z6" s="3">
         <v>-1</v>
@@ -2151,10 +2136,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AG6" s="3">
         <v>-1</v>
@@ -2238,18 +2223,18 @@
         <v>-1</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D7" s="3">
         <v>-8.4125960000000006</v>
@@ -2312,10 +2297,10 @@
         <v>-1</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Z7" s="3">
         <v>-1</v>
@@ -2333,10 +2318,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AG7" s="3">
         <v>-1</v>
@@ -2420,7 +2405,7 @@
         <v>-1</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2431,7 +2416,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D8" s="3">
         <v>-8.4180130000000002</v>
@@ -2602,7 +2587,7 @@
         <v>-1</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2613,7 +2598,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D9" s="3">
         <v>-8.4206710000000005</v>
@@ -2673,13 +2658,13 @@
         <v>-1</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Z9">
         <v>-1</v>
@@ -2694,13 +2679,13 @@
         <v>-1</v>
       </c>
       <c r="AD9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AG9">
         <v>-1</v>
@@ -2715,7 +2700,7 @@
         <v>-1</v>
       </c>
       <c r="AK9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AL9" s="3">
         <v>-1</v>
@@ -2736,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AS9" s="3">
         <v>-1</v>
@@ -2757,7 +2742,7 @@
         <v>-1</v>
       </c>
       <c r="AY9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AZ9" s="3">
         <v>-1</v>
@@ -2778,51 +2763,51 @@
         <v>-1</v>
       </c>
       <c r="BF9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="BG9" s="3">
         <v>-1</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-8.4235389999999999</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>-1</v>
-      </c>
       <c r="F10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>-1</v>
+        <v>239484254</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="H10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-1</v>
+        <v>13</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M10" s="3">
         <v>-1</v>
@@ -2857,32 +2842,32 @@
       <c r="W10" s="3">
         <v>-1</v>
       </c>
-      <c r="X10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>-1</v>
+      <c r="X10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="Z10" s="3">
         <v>-1</v>
       </c>
-      <c r="AA10" s="3">
-        <v>-1</v>
+      <c r="AA10" t="s">
+        <v>113</v>
       </c>
       <c r="AB10" s="3">
         <v>-1</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10">
         <v>-1</v>
       </c>
       <c r="AD10" s="3">
         <v>-1</v>
       </c>
-      <c r="AE10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>-1</v>
+      <c r="AE10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="AG10" s="3">
         <v>-1</v>
@@ -2966,45 +2951,45 @@
         <v>-1</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11" s="3">
-        <v>-8.4235389999999999</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>-8.4252289999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-1</v>
       </c>
       <c r="F11" s="3">
-        <v>239484254</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>45</v>
+        <v>-1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-1</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>22</v>
+      <c r="I11" s="3">
+        <v>-1</v>
       </c>
       <c r="J11" s="3">
-        <v>13</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>24</v>
+        <v>-1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>-1</v>
       </c>
       <c r="M11" s="3">
         <v>-1</v>
@@ -3040,45 +3025,45 @@
         <v>-1</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="Z11" s="3">
         <v>-1</v>
       </c>
-      <c r="AA11" t="s">
-        <v>118</v>
+      <c r="AA11" s="3">
+        <v>-1</v>
       </c>
       <c r="AB11" s="3">
         <v>-1</v>
       </c>
-      <c r="AC11">
-        <v>-1</v>
+      <c r="AC11" t="s">
+        <v>113</v>
       </c>
       <c r="AD11" s="3">
         <v>-1</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH11" s="3">
+        <v>127</v>
+      </c>
+      <c r="AG11">
+        <v>-1</v>
+      </c>
+      <c r="AH11">
         <v>-1</v>
       </c>
       <c r="AI11" s="3">
         <v>-1</v>
       </c>
-      <c r="AJ11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK11" s="3">
+      <c r="AJ11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK11">
         <v>-1</v>
       </c>
       <c r="AL11" s="3">
@@ -3148,30 +3133,30 @@
         <v>-1</v>
       </c>
       <c r="BH11" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-8.4229430000000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-8.4252289999999999</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-1</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -3222,45 +3207,45 @@
         <v>-1</v>
       </c>
       <c r="X12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="AF12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG12">
-        <v>-1</v>
-      </c>
-      <c r="AH12">
+        <v>126</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH12" s="3">
         <v>-1</v>
       </c>
       <c r="AI12" s="3">
         <v>-1</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK12">
+      <c r="AJ12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK12" s="3">
         <v>-1</v>
       </c>
       <c r="AL12" s="3">
@@ -3330,30 +3315,30 @@
         <v>-1</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D13" s="3">
-        <v>-8.4229430000000001</v>
+        <v>-8.420909</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
       </c>
       <c r="F13" s="3">
-        <v>-1</v>
+        <v>239048784</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -3404,10 +3389,10 @@
         <v>-1</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Z13" s="3">
         <v>-1</v>
@@ -3418,17 +3403,17 @@
       <c r="AB13" s="3">
         <v>-1</v>
       </c>
-      <c r="AC13" s="3">
-        <v>-1</v>
+      <c r="AC13" t="s">
+        <v>138</v>
       </c>
       <c r="AD13" s="3">
         <v>-1</v>
       </c>
-      <c r="AE13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>131</v>
+      <c r="AE13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>-1</v>
       </c>
       <c r="AG13" s="3">
         <v>-1</v>
@@ -3512,45 +3497,45 @@
         <v>-1</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-8.420909</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-1</v>
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="6">
+        <v>-8.4029330000000009</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F14" s="3">
-        <v>239048784</v>
+        <v>239704445</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>-1</v>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J14" s="3">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="K14" s="3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="L14" s="3">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="M14" s="3">
         <v>-1</v>
@@ -3585,11 +3570,11 @@
       <c r="W14" s="3">
         <v>-1</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>143</v>
+      <c r="X14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>-1</v>
       </c>
       <c r="Z14" s="3">
         <v>-1</v>
@@ -3600,8 +3585,8 @@
       <c r="AB14" s="3">
         <v>-1</v>
       </c>
-      <c r="AC14" t="s">
-        <v>143</v>
+      <c r="AC14" s="3">
+        <v>-1</v>
       </c>
       <c r="AD14" s="3">
         <v>-1</v>
@@ -3694,21 +3679,21 @@
         <v>-1</v>
       </c>
       <c r="BH14" s="3" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>-1</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D15" s="3">
-        <v>-1</v>
+        <v>-8.4084070000000004</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -3722,357 +3707,357 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-8.4076140000000006</v>
+      </c>
+      <c r="E16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="3">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
-        <v>13</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="J16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>23</v>
+      </c>
+      <c r="M16" s="3">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>13</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="X15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH15" s="3" t="s">
-        <v>69</v>
+      <c r="N16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH16" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="6">
-        <v>-8.4029330000000009</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="3">
-        <v>239704445</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="3">
-        <v>13</v>
-      </c>
-      <c r="K16" s="3">
-        <v>14</v>
-      </c>
-      <c r="L16" s="3">
-        <v>18</v>
-      </c>
-      <c r="M16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="P16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="X16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:60" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D17" s="3">
-        <v>-8.4084070000000004</v>
+        <v>-8.4049420000000001</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -4086,29 +4071,29 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="3">
-        <v>-1</v>
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="K17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="3">
+        <v>21</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="3">
-        <v>-1</v>
-      </c>
       <c r="O17" s="3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="P17" s="3">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="3">
         <v>-1</v>
@@ -4131,11 +4116,11 @@
       <c r="W17" s="3">
         <v>-1</v>
       </c>
-      <c r="X17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>-1</v>
+      <c r="X17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="Z17" s="3">
         <v>-1</v>
@@ -4152,11 +4137,11 @@
       <c r="AD17" s="3">
         <v>-1</v>
       </c>
-      <c r="AE17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>-1</v>
+      <c r="AE17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="AG17" s="3">
         <v>-1</v>
@@ -4240,36 +4225,36 @@
         <v>-1</v>
       </c>
       <c r="BH17" s="3" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D18" s="3">
-        <v>-8.4076140000000006</v>
+        <v>-8.4026700000000005</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
       </c>
       <c r="F18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1</v>
+        <v>917238155</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="H18" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J18" s="3">
         <v>-1</v>
@@ -4278,19 +4263,19 @@
         <v>-1</v>
       </c>
       <c r="L18" s="3">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="M18" s="3">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N18" s="3">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="O18" s="3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="P18" s="3">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="3">
         <v>-1</v>
@@ -4313,11 +4298,11 @@
       <c r="W18" s="3">
         <v>-1</v>
       </c>
-      <c r="X18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-1</v>
+      <c r="X18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="Z18" s="3">
         <v>-1</v>
@@ -4328,32 +4313,32 @@
       <c r="AB18" s="3">
         <v>-1</v>
       </c>
-      <c r="AC18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>-1</v>
+      <c r="AC18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG18">
+        <v>-1</v>
+      </c>
+      <c r="AH18">
+        <v>-1</v>
+      </c>
+      <c r="AI18">
+        <v>-1</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>131</v>
       </c>
       <c r="AL18" s="3">
         <v>-1</v>
@@ -4361,40 +4346,40 @@
       <c r="AM18" s="3">
         <v>-1</v>
       </c>
-      <c r="AN18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY18" s="3">
+      <c r="AN18">
+        <v>-1</v>
+      </c>
+      <c r="AO18">
+        <v>-1</v>
+      </c>
+      <c r="AP18">
+        <v>-1</v>
+      </c>
+      <c r="AQ18">
+        <v>-1</v>
+      </c>
+      <c r="AR18">
+        <v>-1</v>
+      </c>
+      <c r="AS18">
+        <v>-1</v>
+      </c>
+      <c r="AT18">
+        <v>-1</v>
+      </c>
+      <c r="AU18">
+        <v>-1</v>
+      </c>
+      <c r="AV18">
+        <v>-1</v>
+      </c>
+      <c r="AW18">
+        <v>-1</v>
+      </c>
+      <c r="AX18">
+        <v>-1</v>
+      </c>
+      <c r="AY18">
         <v>-1</v>
       </c>
       <c r="AZ18" s="3">
@@ -4403,571 +4388,207 @@
       <c r="BA18" s="3">
         <v>-1</v>
       </c>
-      <c r="BB18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF18" s="3">
+      <c r="BB18">
+        <v>-1</v>
+      </c>
+      <c r="BC18">
+        <v>-1</v>
+      </c>
+      <c r="BD18">
+        <v>-1</v>
+      </c>
+      <c r="BE18">
+        <v>-1</v>
+      </c>
+      <c r="BF18">
         <v>-1</v>
       </c>
       <c r="BG18" s="3">
         <v>-1</v>
       </c>
       <c r="BH18" s="3" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-8.4212321321899992</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="3">
-        <v>-8.4049420000000001</v>
-      </c>
-      <c r="E19" s="3">
-        <v>-1</v>
-      </c>
       <c r="F19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3">
-        <v>10</v>
+        <v>935877377</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="3">
-        <v>14</v>
-      </c>
-      <c r="L19" s="3">
-        <v>21</v>
-      </c>
-      <c r="M19" s="3">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O19" s="3">
-        <v>14</v>
-      </c>
-      <c r="P19" s="3">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W19" s="3">
-        <v>-1</v>
+        <v>176</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>-1</v>
+        <v>109</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF19" s="3">
-        <v>-1</v>
+        <v>191</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR19" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU19" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BA19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BB19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BF19" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="BG19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH19" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:60" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-8.4026700000000005</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>917238155</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>9</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>19</v>
-      </c>
-      <c r="M20" s="3">
-        <v>10</v>
-      </c>
-      <c r="N20" s="3">
-        <v>13</v>
-      </c>
-      <c r="O20" s="3">
-        <v>14</v>
-      </c>
-      <c r="P20" s="3">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG20">
-        <v>-1</v>
-      </c>
-      <c r="AH20">
-        <v>-1</v>
-      </c>
-      <c r="AI20">
-        <v>-1</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN20">
-        <v>-1</v>
-      </c>
-      <c r="AO20">
-        <v>-1</v>
-      </c>
-      <c r="AP20">
-        <v>-1</v>
-      </c>
-      <c r="AQ20">
-        <v>-1</v>
-      </c>
-      <c r="AR20">
-        <v>-1</v>
-      </c>
-      <c r="AS20">
-        <v>-1</v>
-      </c>
-      <c r="AT20">
-        <v>-1</v>
-      </c>
-      <c r="AU20">
-        <v>-1</v>
-      </c>
-      <c r="AV20">
-        <v>-1</v>
-      </c>
-      <c r="AW20">
-        <v>-1</v>
-      </c>
-      <c r="AX20">
-        <v>-1</v>
-      </c>
-      <c r="AY20">
-        <v>-1</v>
-      </c>
-      <c r="AZ20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB20">
-        <v>-1</v>
-      </c>
-      <c r="BC20">
-        <v>-1</v>
-      </c>
-      <c r="BD20">
-        <v>-1</v>
-      </c>
-      <c r="BE20">
-        <v>-1</v>
-      </c>
-      <c r="BF20">
-        <v>-1</v>
-      </c>
-      <c r="BG20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH20" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-8.4212321321899992</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F21" s="3">
-        <v>935877377</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF21" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI21" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AJ21" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK21" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AL21" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AM21" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AN21" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AO21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AQ21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AR21" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AV21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AW21" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX21" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AY21" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ21" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="BA21" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="BB21" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="BC21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="BD21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="BE21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="BF21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG21" s="3">
         <v>5</v>
       </c>
-      <c r="BH21" s="3"/>
+      <c r="BH19" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4978,11 +4599,11 @@
     <hyperlink ref="G6" r:id="rId5" xr:uid="{7AEEE135-0C06-4F0C-8E55-A6EC8D2209C2}"/>
     <hyperlink ref="G9" r:id="rId6" xr:uid="{2FD7D590-9C0C-4A36-97D7-B19E1784A13A}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{B140FBED-D4F8-430F-BCA2-E9B46ADB42B9}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{65FA1AC9-BEFC-4D92-B61A-51CFE5578CAF}"/>
-    <hyperlink ref="G11" r:id="rId9" xr:uid="{454D9B3B-A1C0-4F46-BA0A-6B8916437E8B}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{65FA1AC9-BEFC-4D92-B61A-51CFE5578CAF}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{454D9B3B-A1C0-4F46-BA0A-6B8916437E8B}"/>
     <hyperlink ref="G7" r:id="rId10" xr:uid="{6D51CB25-8392-4DFB-8A62-9699BFEE2C0C}"/>
-    <hyperlink ref="E21" r:id="rId11" xr:uid="{18B6A34D-57EC-4A9D-B757-EFAA4EC0D173}"/>
-    <hyperlink ref="G21" r:id="rId12" xr:uid="{6D2908D8-6A06-4205-B978-5FE58AE12476}"/>
+    <hyperlink ref="E19" r:id="rId11" xr:uid="{18B6A34D-57EC-4A9D-B757-EFAA4EC0D173}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{6D2908D8-6A06-4205-B978-5FE58AE12476}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>

--- a/Reprografias.xlsx
+++ b/Reprografias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projetos\CoimbraInk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08610EE0-83C6-4B32-B918-4889EBB8BA1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF02BC1D-1785-4F23-A36D-7BA33E362C59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="217">
   <si>
     <t>Latitude</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>0.3211</t>
+  </si>
+  <si>
+    <t>10.30</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,7 @@
   <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,17 +3164,17 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>-1</v>
+      <c r="I12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K12" s="3">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="L12" s="3">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="M12" s="3">
         <v>-1</v>

--- a/Reprografias.xlsx
+++ b/Reprografias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projetos\CoimbraInk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF02BC1D-1785-4F23-A36D-7BA33E362C59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37476AB5-5C18-4F8F-90ED-595829A1B137}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="216">
   <si>
     <t>Latitude</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>Horario Fecho Semana Tarde</t>
-  </si>
-  <si>
-    <t>13-30</t>
   </si>
   <si>
     <t>MundiCópia</t>
@@ -1072,7 +1069,7 @@
   <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,130 +1186,130 @@
         <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="BG1" s="2" t="s">
         <v>14</v>
@@ -1329,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3">
         <v>-8.4154060000000008</v>
@@ -1392,115 +1389,115 @@
         <v>-1</v>
       </c>
       <c r="X2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
+        <v>-1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
-      <c r="AC2">
-        <v>-1</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AI2">
+        <v>-1</v>
+      </c>
+      <c r="AJ2">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="s">
         <v>114</v>
       </c>
-      <c r="AE2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI2">
-        <v>-1</v>
-      </c>
-      <c r="AJ2">
-        <v>-1</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AL2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN2">
+        <v>-1</v>
+      </c>
+      <c r="AO2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ2">
+        <v>-1</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT2">
+        <v>-1</v>
+      </c>
+      <c r="AU2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW2">
+        <v>-1</v>
+      </c>
+      <c r="AX2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN2">
-        <v>-1</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ2">
-        <v>-1</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT2">
-        <v>-1</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW2">
-        <v>-1</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.25">
@@ -1511,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D3" s="3">
         <v>-8.4101189999999999</v>
@@ -1574,115 +1571,115 @@
         <v>-1</v>
       </c>
       <c r="X3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
+        <v>-1</v>
+      </c>
+      <c r="AD3">
+        <v>-1</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB3">
-        <v>-1</v>
-      </c>
-      <c r="AC3">
-        <v>-1</v>
-      </c>
-      <c r="AD3">
-        <v>-1</v>
-      </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI3">
+        <v>-1</v>
+      </c>
+      <c r="AJ3">
+        <v>-1</v>
+      </c>
+      <c r="AK3">
+        <v>-1</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AN3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AO3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AQ3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AR3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AT3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AU3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AX3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="BD3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="BE3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="BF3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH3" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI3">
-        <v>-1</v>
-      </c>
-      <c r="AJ3">
-        <v>-1</v>
-      </c>
-      <c r="AK3">
-        <v>-1</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AN3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AO3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AQ3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AR3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AS3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AT3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AU3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AV3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AW3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AX3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AY3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="BB3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="BC3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="BD3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="BE3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="BF3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -1693,7 +1690,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="3">
         <v>-8.4124990000000004</v>
@@ -1756,10 +1753,10 @@
         <v>-1</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z4">
         <v>-1</v>
@@ -1771,16 +1768,16 @@
         <v>-1</v>
       </c>
       <c r="AC4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD4" s="3">
         <v>-1</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG4">
         <v>-1</v>
@@ -1792,7 +1789,7 @@
         <v>-1</v>
       </c>
       <c r="AJ4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AK4">
         <v>-1</v>
@@ -1864,7 +1861,7 @@
         <v>-1</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -1875,7 +1872,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="3">
         <v>-8.4152539999999991</v>
@@ -1938,31 +1935,31 @@
         <v>-1</v>
       </c>
       <c r="X5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Y5" s="3" t="s">
+      <c r="Z5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Z5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="AG5" s="3">
         <v>-1</v>
@@ -2049,13 +2046,13 @@
     </row>
     <row r="6" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="3">
         <v>-8.4166969999999992</v>
@@ -2118,32 +2115,32 @@
         <v>-1</v>
       </c>
       <c r="X6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AF6" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AG6" s="3">
         <v>-1</v>
       </c>
@@ -2226,18 +2223,18 @@
         <v>-1</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="3">
         <v>-8.4125960000000006</v>
@@ -2300,32 +2297,32 @@
         <v>-1</v>
       </c>
       <c r="X7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AF7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AG7" s="3">
         <v>-1</v>
       </c>
@@ -2408,7 +2405,7 @@
         <v>-1</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2419,7 +2416,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="3">
         <v>-8.4180130000000002</v>
@@ -2590,7 +2587,7 @@
         <v>-1</v>
       </c>
       <c r="BH8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2601,7 +2598,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="3">
         <v>-8.4206710000000005</v>
@@ -2661,34 +2658,34 @@
         <v>-1</v>
       </c>
       <c r="W9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z9">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
+        <v>-1</v>
+      </c>
+      <c r="AD9" t="s">
         <v>130</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="AE9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z9">
-        <v>-1</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>-1</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="AF9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG9">
         <v>-1</v>
@@ -2703,7 +2700,7 @@
         <v>-1</v>
       </c>
       <c r="AK9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL9" s="3">
         <v>-1</v>
@@ -2724,66 +2721,66 @@
         <v>2</v>
       </c>
       <c r="AR9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH9" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="AS9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>131</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH9" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D10" s="3">
         <v>-8.4235389999999999</v>
@@ -2846,32 +2843,32 @@
         <v>-1</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
+        <v>-1</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF10" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AG10" s="3">
         <v>-1</v>
       </c>
@@ -2954,7 +2951,7 @@
         <v>-1</v>
       </c>
       <c r="BH10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -2965,7 +2962,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" s="3">
         <v>-8.4252289999999999</v>
@@ -3028,126 +3025,126 @@
         <v>-1</v>
       </c>
       <c r="X11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG11">
+        <v>-1</v>
+      </c>
+      <c r="AH11">
+        <v>-1</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>107</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AK11">
+        <v>-1</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH11" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG11">
-        <v>-1</v>
-      </c>
-      <c r="AH11">
-        <v>-1</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK11">
-        <v>-1</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH11" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D12" s="3">
         <v>-8.4229430000000001</v>
@@ -3165,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>31</v>
@@ -3210,32 +3207,32 @@
         <v>-1</v>
       </c>
       <c r="X12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y12" s="3" t="s">
+      <c r="AF12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="Z12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="AG12" s="3">
         <v>-1</v>
       </c>
@@ -3318,7 +3315,7 @@
         <v>-1</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:60" ht="30" x14ac:dyDescent="0.25">
@@ -3329,7 +3326,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="3">
         <v>-8.420909</v>
@@ -3392,115 +3389,115 @@
         <v>-1</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH13" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH13" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
@@ -3511,7 +3508,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" s="6">
         <v>-8.4029330000000009</v>
@@ -3693,7 +3690,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="3">
         <v>-8.4084070000000004</v>
@@ -3872,10 +3869,10 @@
         <v>57</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="3">
         <v>-8.4076140000000006</v>
@@ -4054,10 +4051,10 @@
         <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="3">
         <v>-8.4049420000000001</v>
@@ -4090,7 +4087,7 @@
         <v>10</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="O17" s="3">
         <v>14</v>
@@ -4120,126 +4117,126 @@
         <v>-1</v>
       </c>
       <c r="X17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AG17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AR17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AS17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AW17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AY17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AZ17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BC17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BD17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BE17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BF17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BG17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH17" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AP17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AQ17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AR17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AS17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AT17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AU17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AW17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AY17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AZ17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BC17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BD17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BE17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BF17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BG17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH17" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:60" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D18" s="3">
         <v>-8.4026700000000005</v>
@@ -4251,7 +4248,7 @@
         <v>917238155</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -4302,10 +4299,10 @@
         <v>-1</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Z18" s="3">
         <v>-1</v>
@@ -4317,126 +4314,126 @@
         <v>-1</v>
       </c>
       <c r="AC18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG18">
+        <v>-1</v>
+      </c>
+      <c r="AH18">
+        <v>-1</v>
+      </c>
+      <c r="AI18">
+        <v>-1</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>144</v>
       </c>
-      <c r="AD18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG18">
-        <v>-1</v>
-      </c>
-      <c r="AH18">
-        <v>-1</v>
-      </c>
-      <c r="AI18">
-        <v>-1</v>
-      </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AN18">
+        <v>-1</v>
+      </c>
+      <c r="AO18">
+        <v>-1</v>
+      </c>
+      <c r="AP18">
+        <v>-1</v>
+      </c>
+      <c r="AQ18">
+        <v>-1</v>
+      </c>
+      <c r="AR18">
+        <v>-1</v>
+      </c>
+      <c r="AS18">
+        <v>-1</v>
+      </c>
+      <c r="AT18">
+        <v>-1</v>
+      </c>
+      <c r="AU18">
+        <v>-1</v>
+      </c>
+      <c r="AV18">
+        <v>-1</v>
+      </c>
+      <c r="AW18">
+        <v>-1</v>
+      </c>
+      <c r="AX18">
+        <v>-1</v>
+      </c>
+      <c r="AY18">
+        <v>-1</v>
+      </c>
+      <c r="AZ18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BA18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BB18">
+        <v>-1</v>
+      </c>
+      <c r="BC18">
+        <v>-1</v>
+      </c>
+      <c r="BD18">
+        <v>-1</v>
+      </c>
+      <c r="BE18">
+        <v>-1</v>
+      </c>
+      <c r="BF18">
+        <v>-1</v>
+      </c>
+      <c r="BG18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="BH18" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AN18">
-        <v>-1</v>
-      </c>
-      <c r="AO18">
-        <v>-1</v>
-      </c>
-      <c r="AP18">
-        <v>-1</v>
-      </c>
-      <c r="AQ18">
-        <v>-1</v>
-      </c>
-      <c r="AR18">
-        <v>-1</v>
-      </c>
-      <c r="AS18">
-        <v>-1</v>
-      </c>
-      <c r="AT18">
-        <v>-1</v>
-      </c>
-      <c r="AU18">
-        <v>-1</v>
-      </c>
-      <c r="AV18">
-        <v>-1</v>
-      </c>
-      <c r="AW18">
-        <v>-1</v>
-      </c>
-      <c r="AX18">
-        <v>-1</v>
-      </c>
-      <c r="AY18">
-        <v>-1</v>
-      </c>
-      <c r="AZ18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BA18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BB18">
-        <v>-1</v>
-      </c>
-      <c r="BC18">
-        <v>-1</v>
-      </c>
-      <c r="BD18">
-        <v>-1</v>
-      </c>
-      <c r="BE18">
-        <v>-1</v>
-      </c>
-      <c r="BF18">
-        <v>-1</v>
-      </c>
-      <c r="BG18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="BH18" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D19" s="3">
         <v>-8.4212321321899992</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" s="3">
         <v>935877377</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>22</v>
@@ -4448,145 +4445,145 @@
         <v>45</v>
       </c>
       <c r="L19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Q19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="W19" s="3" t="s">
+      <c r="X19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Y19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z19" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Y19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AA19" s="3" t="s">
+      <c r="AB19" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AB19" s="3" t="s">
+      <c r="AC19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AD19" s="3" t="s">
+      <c r="AE19" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AE19" s="3" t="s">
+      <c r="AF19" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AF19" s="3" t="s">
+      <c r="AG19" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AG19" s="3" t="s">
+      <c r="AH19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI19" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AH19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI19" s="3" t="s">
+      <c r="AJ19" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AJ19" s="3" t="s">
+      <c r="AK19" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AK19" s="3" t="s">
+      <c r="AL19" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AL19" s="3" t="s">
+      <c r="AM19" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AM19" s="3" t="s">
+      <c r="AN19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AN19" s="3" t="s">
+      <c r="AO19" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AO19" s="3" t="s">
+      <c r="AP19" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AP19" s="3" t="s">
+      <c r="AQ19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR19" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="AQ19" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR19" s="3" t="s">
+      <c r="AS19" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="AS19" s="3" t="s">
+      <c r="AT19" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AT19" s="3" t="s">
+      <c r="AU19" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AU19" s="3" t="s">
+      <c r="AV19" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AV19" s="3" t="s">
+      <c r="AW19" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AW19" s="3" t="s">
+      <c r="AX19" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AX19" s="3" t="s">
+      <c r="AY19" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AY19" s="3" t="s">
+      <c r="AZ19" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AZ19" s="3" t="s">
+      <c r="BA19" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="BA19" s="3" t="s">
+      <c r="BB19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD19" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="BB19" s="3" t="s">
+      <c r="BE19" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="BC19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="BD19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BE19" s="3" t="s">
+      <c r="BF19" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="BF19" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="BG19" s="3">
         <v>5</v>

--- a/Reprografias.xlsx
+++ b/Reprografias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\projetos\CoimbraInk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37476AB5-5C18-4F8F-90ED-595829A1B137}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA051EB-4FE0-4688-BA1E-FC078C0651EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E3E08FD-BF37-48D8-952B-5250572D8340}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="168">
   <si>
     <t>Latitude</t>
   </si>
@@ -532,150 +532,6 @@
   </si>
   <si>
     <t>40.204160</t>
-  </si>
-  <si>
-    <t>Teste Hugo</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>40.21231</t>
-  </si>
-  <si>
-    <t>www.alberto.com</t>
-  </si>
-  <si>
-    <t>hugo@alberto.com</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>9.50</t>
-  </si>
-  <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>14.50</t>
-  </si>
-  <si>
-    <t>23.50</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>0.321</t>
-  </si>
-  <si>
-    <t>0.890</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>0.3213</t>
-  </si>
-  <si>
-    <t>0.21312</t>
-  </si>
-  <si>
-    <t>0.3232</t>
-  </si>
-  <si>
-    <t>0.32132131</t>
-  </si>
-  <si>
-    <t>0.832</t>
-  </si>
-  <si>
-    <t>0.9555</t>
-  </si>
-  <si>
-    <t>0.83232</t>
-  </si>
-  <si>
-    <t>0.9123</t>
-  </si>
-  <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.323</t>
-  </si>
-  <si>
-    <t>0.3254</t>
-  </si>
-  <si>
-    <t>0.4354</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.5463</t>
-  </si>
-  <si>
-    <t>0.5465</t>
-  </si>
-  <si>
-    <t>0.564645</t>
-  </si>
-  <si>
-    <t>0.431321</t>
-  </si>
-  <si>
-    <t>0.213112</t>
-  </si>
-  <si>
-    <t>0.321312</t>
-  </si>
-  <si>
-    <t>0.32131</t>
-  </si>
-  <si>
-    <t>0.5334</t>
-  </si>
-  <si>
-    <t>0.534</t>
-  </si>
-  <si>
-    <t>0.535</t>
-  </si>
-  <si>
-    <t>0.543</t>
-  </si>
-  <si>
-    <t>0.321321</t>
-  </si>
-  <si>
-    <t>0.3211</t>
   </si>
   <si>
     <t>10.30</t>
@@ -1069,7 +925,7 @@
   <dimension ref="A1:BH19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>31</v>
@@ -4411,183 +4267,41 @@
       </c>
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-8.4212321321899992</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="3">
-        <v>935877377</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AO19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP19" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ19" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AR19" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AS19" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AU19" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AV19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AW19" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AX19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AZ19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BA19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="BB19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="BC19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BD19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="BF19" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="BG19" s="3">
-        <v>5</v>
-      </c>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
       <c r="BH19" s="3"/>
     </row>
   </sheetData>
@@ -4602,10 +4316,8 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{65FA1AC9-BEFC-4D92-B61A-51CFE5578CAF}"/>
     <hyperlink ref="G10" r:id="rId9" xr:uid="{454D9B3B-A1C0-4F46-BA0A-6B8916437E8B}"/>
     <hyperlink ref="G7" r:id="rId10" xr:uid="{6D51CB25-8392-4DFB-8A62-9699BFEE2C0C}"/>
-    <hyperlink ref="E19" r:id="rId11" xr:uid="{18B6A34D-57EC-4A9D-B757-EFAA4EC0D173}"/>
-    <hyperlink ref="G19" r:id="rId12" xr:uid="{6D2908D8-6A06-4205-B978-5FE58AE12476}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>